--- a/SubSystems/Electrical Power System/Hardware/EPS_V1/Project Outputs for EPS_V1/3D_and_pcb/BOM/BOM_SMT-EPS_V1.xlsx
+++ b/SubSystems/Electrical Power System/Hardware/EPS_V1/Project Outputs for EPS_V1/3D_and_pcb/BOM/BOM_SMT-EPS_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!MEGA\!myFiles\ArianSat-Stratosphere\SubSystems\Electrical Power System\Hardware\EPS_V1\Project Outputs for EPS_V1\3D_and_pcb\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83AA40F5-9F1B-4B12-9A76-6DFD6FABAA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2732271-FDE1-41FF-83B2-A597F321016B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9225" windowWidth="2250" windowHeight="1530" xr2:uid="{25D651B7-B704-4539-A279-A1B32B854629}"/>
+    <workbookView xWindow="26025" yWindow="6330" windowWidth="2250" windowHeight="1530" xr2:uid="{3553153C-F948-4E6C-BEFB-C421B6004481}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_SMT-EPS_V1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="200">
   <si>
     <t>Comment</t>
   </si>
@@ -318,16 +318,7 @@
     <t>CERCAP 0603 10uF 50V X7R</t>
   </si>
   <si>
-    <t>C40, C45</t>
-  </si>
-  <si>
-    <t>CERCAP 0805 10uF 50V X7R</t>
-  </si>
-  <si>
-    <t>C86</t>
-  </si>
-  <si>
-    <t>CERCAP 0805</t>
+    <t>C40, C45, C86</t>
   </si>
   <si>
     <t>DiodeTVSs</t>
@@ -1013,8 +1004,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528F7681-1332-45C3-B7F8-CEF0B1B43AB9}">
-  <dimension ref="A1:E82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FCCC24-50A6-4270-854C-8F1EB66213AB}">
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,7 +1548,9 @@
       <c r="C37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E37" s="2" t="s">
         <v>46</v>
       </c>
@@ -1572,9 +1565,7 @@
       <c r="C38" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="2" t="s">
         <v>46</v>
       </c>
@@ -1617,7 +1608,7 @@
         <v>110</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2" t="s">
@@ -1626,13 +1617,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2" t="s">
@@ -1647,7 +1638,7 @@
         <v>115</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
@@ -1656,13 +1647,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2" t="s">
@@ -1707,7 +1698,7 @@
         <v>126</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2" t="s">
@@ -1716,13 +1707,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2" t="s">
@@ -1731,13 +1722,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2" t="s">
@@ -1746,13 +1737,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2" t="s">
@@ -1761,13 +1752,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2" t="s">
@@ -1776,13 +1767,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2" t="s">
@@ -1791,13 +1782,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2" t="s">
@@ -1806,13 +1797,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2" t="s">
@@ -1821,13 +1812,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2" t="s">
@@ -1836,13 +1827,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2" t="s">
@@ -1851,13 +1842,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2" t="s">
@@ -1866,13 +1857,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2" t="s">
@@ -1881,13 +1872,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2" t="s">
@@ -1896,13 +1887,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2" t="s">
@@ -1911,13 +1902,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2" t="s">
@@ -1926,13 +1917,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2" t="s">
@@ -1941,13 +1932,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2" t="s">
@@ -1956,13 +1947,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2" t="s">
@@ -1971,13 +1962,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2" t="s">
@@ -1986,13 +1977,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2" t="s">
@@ -2001,13 +1992,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2" t="s">
@@ -2016,13 +2007,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2" t="s">
@@ -2031,13 +2022,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2" t="s">
@@ -2046,13 +2037,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2" t="s">
@@ -2061,13 +2052,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2" t="s">
@@ -2076,13 +2067,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2" t="s">
@@ -2091,13 +2082,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2" t="s">
@@ -2112,7 +2103,7 @@
         <v>181</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2" t="s">
@@ -2121,13 +2112,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="2" t="s">
@@ -2136,13 +2127,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2" t="s">
@@ -2172,7 +2163,7 @@
         <v>191</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="2" t="s">
@@ -2181,13 +2172,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2" t="s">
@@ -2217,25 +2208,10 @@
         <v>199</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2" t="s">
         <v>46</v>
       </c>
     </row>

--- a/SubSystems/Electrical Power System/Hardware/EPS_V1/Project Outputs for EPS_V1/3D_and_pcb/BOM/BOM_SMT-EPS_V1.xlsx
+++ b/SubSystems/Electrical Power System/Hardware/EPS_V1/Project Outputs for EPS_V1/3D_and_pcb/BOM/BOM_SMT-EPS_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!MEGA\!myFiles\ArianSat-Stratosphere\SubSystems\Electrical Power System\Hardware\EPS_V1\Project Outputs for EPS_V1\3D_and_pcb\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2732271-FDE1-41FF-83B2-A597F321016B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68C6E1A-0AE2-403F-8471-3F0EFF552396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26025" yWindow="6330" windowWidth="2250" windowHeight="1530" xr2:uid="{3553153C-F948-4E6C-BEFB-C421B6004481}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C3C1308-574E-40C6-B22C-7CD337EFDF41}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_SMT-EPS_V1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="201">
   <si>
     <t>Comment</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>LCSC Part #</t>
-  </si>
-  <si>
-    <t>IsSMT</t>
-  </si>
-  <si>
     <t>BQ2920</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>[NoValue], DCS5R5224H, IND 0603</t>
   </si>
   <si>
-    <t>[NoParam], NoSMT</t>
-  </si>
-  <si>
     <t>!Generic P MOSFET</t>
   </si>
   <si>
@@ -168,9 +159,6 @@
     <t>DFN-8_3x3</t>
   </si>
   <si>
-    <t>NoSMT</t>
-  </si>
-  <si>
     <t>2N7002</t>
   </si>
   <si>
@@ -372,6 +360,15 @@
     <t>IND-5x5</t>
   </si>
   <si>
+    <t>LED 0603 Red</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED 0603</t>
+  </si>
+  <si>
     <t>NTMFS5C670NLT1G</t>
   </si>
   <si>
@@ -411,6 +408,12 @@
     <t>R9, R51, R67, R71, R72, R75, R83, R84, R88, R95, R96</t>
   </si>
   <si>
+    <t>RES 0402 1M</t>
+  </si>
+  <si>
+    <t>R128, R129, R130, R131</t>
+  </si>
+  <si>
     <t>RES 0402 1.4k</t>
   </si>
   <si>
@@ -492,7 +495,7 @@
     <t>RES 0402 10k</t>
   </si>
   <si>
-    <t>R10, R11, R13, R33, R34, R35, R36, R39, R48, R50, R52, R53, R58, R61, R62, R64, R65, R78, R80, R86, R87, R89, R90, R93, R101, R102, R104, R106, R117, R127</t>
+    <t>R10, R11, R13, R33, R34, R35, R36, R39, R48, R50, R52, R53, R58, R61, R62, R64, R65, R78, R80, R86, R87, R89, R90, R93, R101, R102, R104, R106, R117, R127, R132</t>
   </si>
   <si>
     <t>RES 0402 19.1k</t>
@@ -609,7 +612,7 @@
     <t>Shottly diode SOD-123</t>
   </si>
   <si>
-    <t>VD1, VD2, VD3, VD4, VD5</t>
+    <t>VD1, VD2, VD3, VD4, VD5, VD9</t>
   </si>
   <si>
     <t>SOD-123</t>
@@ -1004,10 +1007,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FCCC24-50A6-4270-854C-8F1EB66213AB}">
-  <dimension ref="A1:E81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CC3FA0-99D6-4779-9C54-CDA0943648D9}">
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1026,1194 +1031,1074 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D55" s="1"/>
-      <c r="E55" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="E56" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="E60" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D64" s="1"/>
-      <c r="E64" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D65" s="1"/>
-      <c r="E65" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D66" s="1"/>
-      <c r="E66" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D67" s="1"/>
-      <c r="E67" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D68" s="1"/>
-      <c r="E68" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D70" s="1"/>
-      <c r="E70" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D71" s="1"/>
-      <c r="E71" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="D74" s="1"/>
-      <c r="E74" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D77" s="1"/>
-      <c r="E77" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D78" s="1"/>
-      <c r="E78" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D80" s="1"/>
-      <c r="E80" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="D82" s="1"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="B83" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
